--- a/Excel Files/Scenario 13/S13_TestCases_Data old.xlsx
+++ b/Excel Files/Scenario 13/S13_TestCases_Data old.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-syazwan\Excel Files\Scenario 13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B3130F-8D55-4384-85FF-2953EF6F00E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3B239-9C26-49A4-A8CC-AE80DF823FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" tabRatio="618" firstSheet="33" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="618" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC09-Create New User" sheetId="18" r:id="rId1"/>
@@ -964,18 +964,12 @@
     <t>CNTW-SUP-TB4-scenario13-20230604-003</t>
   </si>
   <si>
-    <t>TB4</t>
-  </si>
-  <si>
     <t>musyarustb2</t>
   </si>
   <si>
     <t>musyarustb2@outlook.com</t>
   </si>
   <si>
-    <t>TB60BL4(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
@@ -1016,6 +1010,12 @@
   </si>
   <si>
     <t>B-230927-TB4-04</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>TB60BL10(T/T REMITTANCE AT 60 DAYS FROM THE END OF B/L MONTH)</t>
   </si>
 </sst>
 </file>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>290</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>291</v>
       </c>
       <c r="D2" s="32" t="str">
         <f>"PK-CUS-POC-S13-"&amp;AutoIncrement!B2</f>
@@ -1723,10 +1723,10 @@
         <v>253</v>
       </c>
       <c r="H2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J2" s="39" t="s">
         <v>267</v>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="E2" s="9" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB4-004</v>
+        <v>CNTWSUP-PKCUS-TBA-004</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>83</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="E3" s="9" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB4-004</v>
+        <v>CNTWSUP-PKCUS-TBA-004</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>83</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E4" s="9" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB4-004</v>
+        <v>CNTWSUP-PKCUS-TBA-004</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>83</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E2" s="9" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB4-004</v>
+        <v>CNTWSUP-PKCUS-TBA-004</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>83</v>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E3" s="9" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB4-004</v>
+        <v>CNTWSUP-PKCUS-TBA-004</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>83</v>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="E4" s="9" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB4-004</v>
+        <v>CNTWSUP-PKCUS-TBA-004</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>83</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>"Cargo Status Setting for PK-CUS-POC-"&amp;'TC35'!K2&amp;"-"&amp;AutoIncrement!A2</f>
-        <v>Cargo Status Setting for PK-CUS-POC-TB4-04</v>
+        <v>Cargo Status Setting for PK-CUS-POC-TBA-04</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>32</v>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F2" s="6" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB4-004</v>
+        <v>CNTWSUP-PKCUS-TBA-004</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>01 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"c"&amp;'TC35'!K2&amp;"-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
     </row>
   </sheetData>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"s" &amp; 'TC35'!K2 &amp; "-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
     </row>
   </sheetData>
@@ -2377,11 +2377,11 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+3), "dd MMM yyyy")</f>
-        <v>05 Dec 2023</v>
+        <v>04 Jan 2024</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+5), "dd MMM yyyy")</f>
-        <v>07 Dec 2023</v>
+        <v>06 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"rc" &amp; 'TC35'!K2 &amp; "-23"&amp;TEXT(TODAY(), "mm")&amp;"001"</f>
-        <v>rcTB4-2310001</v>
+        <v>rcTBA-2311001</v>
       </c>
     </row>
   </sheetData>
@@ -2575,7 +2575,7 @@
     <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>140</v>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="I2" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>31</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>31</v>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>31</v>
@@ -2879,7 +2879,7 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>140</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="I2" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>32</v>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>32</v>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>32</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="E2" s="3" t="str">
         <f ca="1">TEXT(TODAY(),"dd/m/yyyy")</f>
-        <v>02/10/2023</v>
+        <v>01/11/2023</v>
       </c>
       <c r="F2" t="s">
         <v>163</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231002-04</v>
+        <v>o-CNTW-SUP-POC-231101-04</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>'TC52-Upload Obound Setup'!B2</f>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="E2" s="4" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231002-04</v>
+        <v>O-231101-04</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>170</v>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231002-04</v>
+        <v>o-CNTW-SUP-POC-231101-04</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>'TC52-Upload Obound Setup'!B2</f>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="E3" s="4" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231002-04</v>
+        <v>O-231101-04</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>172</v>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-" &amp; AutoIncrement!A$2</f>
-        <v>o-CNTW-SUP-POC-231002-04</v>
+        <v>o-CNTW-SUP-POC-231101-04</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>'TC52-Upload Obound Setup'!B2</f>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E4" s="4" t="str">
         <f ca="1">"O-"&amp;TEXT(TODAY(),"yymmdd")&amp; "-" &amp; AutoIncrement!A2</f>
-        <v>O-231002-04</v>
+        <v>O-231101-04</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>170</v>
@@ -3300,11 +3300,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"B-"&amp;TEXT(TODAY(),"yymmdd") &amp; "-"&amp; 'TC35'!L2 &amp;"-"&amp; AutoIncrement!A2</f>
-        <v>B-231002-CD-05-TB404-04</v>
+        <v>B-231101-CD-05-TBA04-04</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
         <v>268</v>
@@ -3453,7 +3453,7 @@
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>173</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="I2" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>32</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>32</v>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>32</v>
@@ -3746,7 +3746,7 @@
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>140</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="I2" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>31</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>31</v>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>31</v>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4098,7 +4098,7 @@
         <v>RoleA</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4547,18 +4547,18 @@
       </c>
       <c r="G2" s="36">
         <f ca="1">TODAY()-2</f>
-        <v>45199</v>
+        <v>45229</v>
       </c>
       <c r="H2" s="36">
         <f ca="1">TODAY()</f>
-        <v>45201</v>
+        <v>45231</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>226</v>
       </c>
       <c r="J2" s="36">
         <f ca="1">TODAY()-2</f>
-        <v>45199</v>
+        <v>45229</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>227</v>
@@ -4599,18 +4599,18 @@
       </c>
       <c r="G3" s="36">
         <f ca="1">TODAY()-2</f>
-        <v>45199</v>
+        <v>45229</v>
       </c>
       <c r="H3" s="36">
         <f ca="1">TODAY()</f>
-        <v>45201</v>
+        <v>45231</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>226</v>
       </c>
       <c r="J3" s="36">
         <f ca="1">TODAY()-2</f>
-        <v>45199</v>
+        <v>45229</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>227</v>
@@ -4648,18 +4648,18 @@
       </c>
       <c r="G4" s="36">
         <f ca="1">TODAY()-2</f>
-        <v>45199</v>
+        <v>45229</v>
       </c>
       <c r="H4" s="36">
         <f ca="1">TODAY()</f>
-        <v>45201</v>
+        <v>45231</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>226</v>
       </c>
       <c r="J4" s="36">
         <f ca="1">TODAY()-2</f>
-        <v>45199</v>
+        <v>45229</v>
       </c>
       <c r="K4" s="32" t="s">
         <v>227</v>
@@ -5073,7 +5073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FF13D-341C-43F0-8A8A-D4F730016CCF}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -5394,7 +5394,7 @@
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>173</v>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="I2" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>32</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>32</v>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>32</v>
@@ -5688,7 +5688,7 @@
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>174</v>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="I2" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>31</v>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>31</v>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>31</v>
@@ -5984,7 +5984,7 @@
         <v>RoleA</v>
       </c>
       <c r="I2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J2" t="str">
         <f>'TC09-Create New User'!I2</f>
@@ -6047,14 +6047,14 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231002-04</v>
+        <v>o-CNTW-SUP-POC-231101-04</v>
       </c>
       <c r="C2" t="str">
         <f>IF('TC52-Upload Obound Form'!D4="","",'TC52-Upload Obound Form'!D4)</f>
         <v/>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E2" s="29" t="str">
         <f>'TC52-Autogen Outbound Data'!$C$2</f>
@@ -6074,14 +6074,14 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231002-04</v>
+        <v>o-CNTW-SUP-POC-231101-04</v>
       </c>
       <c r="C3" t="str">
         <f>'TC52-Upload Obound Form'!D3</f>
         <v>CNO1234</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E3" s="29" t="str">
         <f>'TC52-Autogen Outbound Data'!C$2</f>
@@ -6098,14 +6098,14 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">'TC52-Upload Obound Form'!B2</f>
-        <v>o-CNTW-SUP-POC-231002-04</v>
+        <v>o-CNTW-SUP-POC-231101-04</v>
       </c>
       <c r="C4" t="str">
         <f>'TC52-Upload Obound Form'!D2</f>
         <v>SEGU5069987</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E4" s="29" t="str">
         <f>'TC52-Autogen Outbound Data'!C$2</f>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="C2" t="str">
         <f>'TC35'!C2</f>
-        <v>CNTWSUP-PKCUS-TB4-004</v>
+        <v>CNTWSUP-PKCUS-TBA-004</v>
       </c>
     </row>
   </sheetData>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">'TC069'!B2</f>
-        <v>o-CNTW-SUP-POC-231002-04</v>
+        <v>o-CNTW-SUP-POC-231101-04</v>
       </c>
       <c r="D2" t="str">
         <f>'TC069'!C2</f>
@@ -7516,11 +7516,11 @@
       </c>
       <c r="F2" s="49" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231002-TB4-001</v>
+        <v>i-CNTW-SUP-POC-231101-TBA-001</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>2 Oct 2023</v>
+        <v>1 Nov 2023</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">'TC069'!B3</f>
-        <v>o-CNTW-SUP-POC-231002-04</v>
+        <v>o-CNTW-SUP-POC-231101-04</v>
       </c>
       <c r="D3" t="str">
         <f>'TC069'!C3</f>
@@ -7555,11 +7555,11 @@
       </c>
       <c r="F3" s="49" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231002-TB4-001</v>
+        <v>i-CNTW-SUP-POC-231101-TBA-001</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G4" ca="1" si="0">TEXT(TODAY(),"d mmm yyyy")</f>
-        <v>2 Oct 2023</v>
+        <v>1 Nov 2023</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">'TC069'!B4</f>
-        <v>o-CNTW-SUP-POC-231002-04</v>
+        <v>o-CNTW-SUP-POC-231101-04</v>
       </c>
       <c r="D4" t="str">
         <f>'TC069'!C4</f>
@@ -7603,11 +7603,11 @@
       </c>
       <c r="F4" s="49" t="str">
         <f ca="1">"i-CNTW-SUP-POC-"&amp;TEXT(TODAY(),"yymmdd")&amp;"-"&amp;'TC35'!K$2&amp;"-001"</f>
-        <v>i-CNTW-SUP-POC-231002-TB4-001</v>
+        <v>i-CNTW-SUP-POC-231101-TBA-001</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 Oct 2023</v>
+        <v>1 Nov 2023</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -7728,7 +7728,7 @@
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>173</v>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I2" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>31</v>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>31</v>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>31</v>
@@ -8008,7 +8008,7 @@
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str">
         <f ca="1">'TC44'!B2</f>
-        <v>sTB4-2310001</v>
+        <v>sTBA-2311001</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>173</v>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I2" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>32</v>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="I3" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>32</v>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="I4" s="6" t="str">
         <f ca="1">'TC42'!B2</f>
-        <v>cTB4-2310001</v>
+        <v>cTBA-2311001</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>32</v>
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -8934,14 +8934,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>01 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -9218,8 +9218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8831F0CB-54EA-4E3E-9894-C50A45F9E7AE}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9326,11 +9326,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C2" t="str">
         <f>"CNTWSUP-PKCUS-"&amp;'TC35'!K2&amp;"-0"&amp;AutoIncrement!A2</f>
-        <v>CNTWSUP-PKCUS-TB4-004</v>
+        <v>CNTWSUP-PKCUS-TBA-004</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -9354,14 +9354,14 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="L2" t="str">
         <f>"CD-05-"&amp;K2&amp;AutoIncrement!A2</f>
-        <v>CD-05-TB404</v>
+        <v>CD-05-TBA04</v>
       </c>
       <c r="M2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="N2" t="s">
         <v>82</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="Q2" t="str">
         <f>"RD-05-"&amp;K2&amp;AutoIncrement!A2</f>
-        <v>RD-05-TB404</v>
+        <v>RD-05-TBA04</v>
       </c>
       <c r="R2" t="s">
         <v>84</v>
@@ -9396,7 +9396,7 @@
         <v>87</v>
       </c>
       <c r="X2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -9405,12 +9405,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9419,7 +9413,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb25f0482db5a79c3d6b5c0926ca00a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67b0f0bb964429d84d53f322277e62a8" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -9590,16 +9584,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03C16C2-4BB0-46C6-A658-173BEED37C92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1671B0B1-E586-46AA-AAE6-6931BBD1F38E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9607,7 +9598,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C04EBEA-A692-4245-ACA9-C2F3A01D3C88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9624,4 +9615,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03C16C2-4BB0-46C6-A658-173BEED37C92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>